--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_发现组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_发现组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -234,6 +229,26 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -591,18 +606,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -625,6 +628,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,10 +1114,18 @@
       <c r="K2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -1141,10 +1164,18 @@
       <c r="K3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1183,10 +1214,18 @@
       <c r="K4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1225,10 +1264,18 @@
       <c r="K5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5575,24 +5622,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="7" style="41" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="41" customWidth="1"/>
-    <col min="5" max="5" width="21" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="82.25" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="21" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="82.25" style="37" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -6416,272 +6463,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
+    <row r="4" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_发现组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_发现组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,16 +1265,16 @@
         <v>35</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="13">
-        <v>42527</v>
+        <v>42528</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1314,10 +1314,18 @@
       <c r="K6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
